--- a/resources/readme/SponsorList.xlsx
+++ b/resources/readme/SponsorList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangy\Desktop\SponsorList\resources\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EEE6D1-E752-4FAE-A996-0C720B31FA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC99E6-AB48-401A-A3B4-B8A8CAE4F9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F3736466-E2D6-4844-9EB6-533C7B82CDE1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="297">
   <si>
     <t>赞助者</t>
   </si>
@@ -916,16 +916,33 @@
   </si>
   <si>
     <t>2022.09.11</t>
+  </si>
+  <si>
+    <t>zyb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024's First Consumption on you</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,6 +983,13 @@
       <color theme="1"/>
       <name val="S"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF40485B"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1024,7 +1048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,21 +1060,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1072,6 +1081,30 @@
     </xf>
     <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,3276 +1420,3293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6695406-965B-48C8-ABD6-1D4328DC7EBB}">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="65.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="65.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="13">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B3" s="14">
         <v>50</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B4" s="13">
         <v>1.8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="13">
         <v>0.52</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="13">
         <v>30</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="15">
         <v>68</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A11" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="13">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A14" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="15">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A15" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A16" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="15">
         <v>5.2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B18" s="13">
         <v>21.5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="15">
         <v>11.14</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B20" s="13">
         <v>5</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="15">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A23" s="3" t="s">
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B24" s="13">
         <v>5</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A24" s="2" t="s">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="15">
         <v>6.97</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A25" s="3" t="s">
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B26" s="13">
         <v>10</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A26" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="15">
         <v>30</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A27" s="3" t="s">
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="5">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="15">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B30" s="13">
         <v>5</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A30" s="2" t="s">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B31" s="15">
         <v>2.64</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A31" s="3" t="s">
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B32" s="13">
         <v>0.5</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A32" s="2" t="s">
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B33" s="15">
         <v>10</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B34" s="13">
         <v>11.11</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A34" s="2" t="s">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B35" s="15">
         <v>5.2</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A35" s="3" t="s">
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="B36" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A36" s="2" t="s">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B37" s="15">
         <v>8.8800000000000008</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A37" s="3" t="s">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B38" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A38" s="2" t="s">
+      <c r="D38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B39" s="15">
         <v>5</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A39" s="3" t="s">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B40" s="13">
         <v>9</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A40" s="2" t="s">
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B41" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A41" s="3" t="s">
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B42" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A42" s="2" t="s">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B43" s="15">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A43" s="3" t="s">
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B44" s="13">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A44" s="2" t="s">
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B45" s="15">
         <v>2</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A45" s="3" t="s">
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B46" s="13">
         <v>2.33</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A46" s="2" t="s">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B47" s="15">
         <v>5</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A47" s="3" t="s">
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B48" s="13">
         <v>2.2200000000000002</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A48" s="2" t="s">
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B49" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A49" s="3" t="s">
+      <c r="D49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B50" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A50" s="2" t="s">
+      <c r="D50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B51" s="15">
         <v>5</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A51" s="3" t="s">
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B52" s="13">
         <v>6</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A52" s="2" t="s">
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B53" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A53" s="3" t="s">
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A54" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B54" s="13">
         <v>5</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A54" s="2" t="s">
+      <c r="D54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B55" s="15">
         <v>5</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A55" s="3" t="s">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A56" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B56" s="13">
         <v>5.2</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A56" s="2" t="s">
+      <c r="D56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B57" s="15">
         <v>10</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A57" s="3" t="s">
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B58" s="13">
         <v>0.52</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A58" s="2" t="s">
+      <c r="D58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B59" s="15">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A59" s="3" t="s">
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A60" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B60" s="13">
         <v>0.5</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A60" s="2" t="s">
+      <c r="D60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B61" s="15">
         <v>2.5</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A61" s="3" t="s">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A62" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B62" s="13">
         <v>2.5</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A62" s="2" t="s">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A63" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B63" s="15">
         <v>0.3</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A63" s="3" t="s">
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A64" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B64" s="13">
         <v>5</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A64" s="2" t="s">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B65" s="15">
         <v>10</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A65" s="3" t="s">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A66" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B66" s="13">
         <v>5.7</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A66" s="2" t="s">
+      <c r="D66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A67" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B67" s="15">
         <v>5</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A67" s="3" t="s">
+      <c r="D67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A68" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B68" s="13">
         <v>5</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A68" s="2" t="s">
+      <c r="D68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B69" s="15">
         <v>2.1</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A69" s="3" t="s">
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A70" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B70" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A70" s="2" t="s">
+      <c r="D70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A71" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B71" s="15">
         <v>5</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A71" s="3" t="s">
+      <c r="D71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A72" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B72" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A72" s="2" t="s">
+      <c r="D72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A73" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B73" s="15">
         <v>5</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A73" s="3" t="s">
+      <c r="D73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A74" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B74" s="13">
         <v>10</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A74" s="2" t="s">
+      <c r="D74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A75" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B75" s="15">
         <v>1</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A75" s="3" t="s">
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A76" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B76" s="13">
         <v>10</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A76" s="2" t="s">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A77" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B77" s="15">
         <v>5</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A77" s="3" t="s">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A78" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B78" s="13">
         <v>1</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A78" s="2" t="s">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A79" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B79" s="15">
         <v>1.45</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A79" s="3" t="s">
+      <c r="D79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A80" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B80" s="13">
         <v>1.46</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A80" s="2" t="s">
+      <c r="D80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B81" s="15">
         <v>1</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A81" s="3" t="s">
+      <c r="D81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A82" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B82" s="13">
         <v>3</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A82" s="2" t="s">
+      <c r="D82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A83" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B83" s="15">
         <v>1</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A83" s="3" t="s">
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A84" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B84" s="13">
         <v>0.1</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A84" s="2" t="s">
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A85" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B85" s="15">
         <v>10</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A85" s="3" t="s">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A86" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B86" s="13">
         <v>5</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A86" s="2" t="s">
+      <c r="D86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A87" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B87" s="15">
         <v>25</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A87" s="3" t="s">
+      <c r="D87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A88" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B88" s="13">
         <v>40</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E88" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A89" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B89" s="15">
         <v>1</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A89" s="3" t="s">
+      <c r="D89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A90" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B90" s="13">
         <v>0.1</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A90" s="2" t="s">
+      <c r="D90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A91" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B91" s="15">
         <v>20</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A91" s="3" t="s">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A92" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B92" s="13">
         <v>1</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A92" s="2" t="s">
+      <c r="D92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A93" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B93" s="15">
         <v>1</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A93" s="3" t="s">
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A94" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B94" s="13">
         <v>1.7</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A94" s="2" t="s">
+      <c r="D94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A95" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B94" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="B95" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A95" s="3" t="s">
+      <c r="D95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A96" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B96" s="13">
         <v>4.9800000000000004</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A96" s="2" t="s">
+      <c r="D96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A97" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B97" s="15">
         <v>30</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A97" s="3" t="s">
+      <c r="D97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A98" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B98" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A98" s="2" t="s">
+      <c r="D98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B99" s="15">
         <v>5</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C99" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="10"/>
-    </row>
-    <row r="99" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A99" s="3" t="s">
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A100" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B100" s="13">
         <v>5</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A100" s="2" t="s">
+      <c r="D100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A101" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B100" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="B101" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A101" s="3" t="s">
+      <c r="D101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A102" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B102" s="13">
         <v>5</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A102" s="2" t="s">
+      <c r="D102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B103" s="15">
         <v>30</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C103" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="10"/>
-    </row>
-    <row r="103" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A103" s="3" t="s">
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A104" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B104" s="13">
         <v>19.98</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A104" s="2" t="s">
+      <c r="D104" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A105" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B105" s="15">
         <v>5</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A105" s="3" t="s">
+      <c r="D105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A106" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="B106" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A106" s="2" t="s">
+      <c r="D106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A107" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B107" s="15">
         <v>5</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A107" s="3" t="s">
+      <c r="D107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A108" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B108" s="13">
         <v>30</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C108" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A108" s="2" t="s">
+      <c r="D108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A109" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B109" s="15">
         <v>5.2</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A109" s="3" t="s">
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A110" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B110" s="13">
         <v>16.66</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A110" s="2" t="s">
+      <c r="D110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A111" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B111" s="15">
         <v>5</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A111" s="3" t="s">
+      <c r="D111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A112" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B112" s="13">
         <v>10</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A112" s="2" t="s">
+      <c r="D112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A113" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B112" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="B113" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A113" s="3" t="s">
+      <c r="D113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A114" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B114" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A114" s="2" t="s">
+      <c r="D114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B115" s="15">
         <v>30</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C115" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="10"/>
-    </row>
-    <row r="115" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A115" s="3" t="s">
+      <c r="D115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A116" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B116" s="13">
         <v>16</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A116" s="2" t="s">
+      <c r="D116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A117" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B116" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="B117" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A117" s="3" t="s">
+      <c r="D117" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A118" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B118" s="13">
         <v>20</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A118" s="2" t="s">
+      <c r="D118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A119" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B118" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="B119" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A119" s="3" t="s">
+      <c r="D119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A120" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B120" s="13">
         <v>10</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A120" s="2" t="s">
+      <c r="D120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A121" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B121" s="15">
         <v>40</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A121" s="3" t="s">
+      <c r="D121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A122" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B122" s="13">
         <v>1.66</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A122" s="2" t="s">
+      <c r="D122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A123" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B123" s="15">
         <v>1.66</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A123" s="3" t="s">
+      <c r="D123" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A124" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B123" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="B124" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A124" s="2" t="s">
+      <c r="D124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A125" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B125" s="15">
         <v>10</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A125" s="3" t="s">
+      <c r="D125" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A126" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B125" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="B126" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A126" s="2" t="s">
+      <c r="D126" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A127" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B127" s="15">
         <v>50</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A127" s="3" t="s">
+      <c r="D127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A128" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B128" s="13">
         <v>5</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A128" s="2" t="s">
+      <c r="D128" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A129" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B129" s="15">
         <v>10</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A129" s="3" t="s">
+      <c r="D129" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A130" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B129" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C129" s="3" t="s">
+      <c r="B130" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A130" s="2" t="s">
+      <c r="D130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A131" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B131" s="15">
         <v>1.66</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A131" s="3" t="s">
+      <c r="D131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A132" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B131" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B132" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A132" s="2" t="s">
+      <c r="D132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B133" s="15">
         <v>20</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C133" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="10"/>
-    </row>
-    <row r="133" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A133" s="3" t="s">
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A134" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B134" s="13">
         <v>10</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A134" s="2" t="s">
+      <c r="D134" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A135" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B135" s="15">
         <v>30</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A135" s="3" t="s">
+      <c r="D135" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A136" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B136" s="13">
         <v>30</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A136" s="2" t="s">
+      <c r="D136" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A137" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B136" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C136" s="2" t="s">
+      <c r="B137" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A137" s="3" t="s">
+      <c r="D137" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A138" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B138" s="13">
         <v>1.66</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A138" s="2" t="s">
+      <c r="D138" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A139" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B139" s="15">
         <v>5</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A139" s="3" t="s">
+      <c r="D139" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A140" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B140" s="13">
         <v>5</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A140" s="2" t="s">
+      <c r="D140" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A141" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B140" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C140" s="2" t="s">
+      <c r="B141" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A141" s="3" t="s">
+      <c r="D141" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A142" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B141" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C141" s="3" t="s">
+      <c r="B142" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A142" s="2" t="s">
+      <c r="D142" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A143" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B142" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C142" s="2" t="s">
+      <c r="B143" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A143" s="3" t="s">
+      <c r="D143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A144" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B143" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="B144" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A144" s="2" t="s">
+      <c r="D144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A145" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B145" s="15">
         <v>5</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A145" s="3" t="s">
+      <c r="D145" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A146" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B146" s="13">
         <v>1.66</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A146" s="2" t="s">
+      <c r="D146" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A147" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B147" s="15">
         <v>30</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A147" s="3" t="s">
+      <c r="D147" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A148" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C147" s="3" t="s">
+      <c r="B148" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A148" s="2" t="s">
+      <c r="D148" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A149" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B148" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C148" s="2" t="s">
+      <c r="B149" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A149" s="3" t="s">
+      <c r="D149" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A150" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B149" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="B150" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A150" s="2" t="s">
+      <c r="D150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A151" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B151" s="15">
         <v>37.56</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A151" s="3" t="s">
+      <c r="D151" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A152" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B152" s="13">
         <v>5</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A152" s="2" t="s">
+      <c r="D152" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A153" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B152" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C152" s="2" t="s">
+      <c r="B153" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A153" s="3" t="s">
+      <c r="D153" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A154" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B154" s="13">
         <v>5</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A154" s="2" t="s">
+      <c r="D154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A155" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B154" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C154" s="2" t="s">
+      <c r="B155" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A155" s="3" t="s">
+      <c r="D155" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A156" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B156" s="13">
         <v>20</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A156" s="2" t="s">
+      <c r="D156" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A157" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B157" s="15">
         <v>10</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A157" s="3" t="s">
+      <c r="D157" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A158" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B158" s="13">
         <v>71.930000000000007</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A158" s="2" t="s">
+      <c r="D158" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A159" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B158" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C158" s="2" t="s">
+      <c r="B159" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A159" s="3" t="s">
+      <c r="D159" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A160" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B160" s="13">
         <v>3.32</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A160" s="2" t="s">
+      <c r="D160" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A161" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B160" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C160" s="2" t="s">
+      <c r="B161" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A161" s="3" t="s">
+      <c r="D161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A162" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B161" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C161" s="3" t="s">
+      <c r="B162" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A162" s="2" t="s">
+      <c r="D162" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A163" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B162" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C162" s="2" t="s">
+      <c r="B163" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A163" s="3" t="s">
+      <c r="D163" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A164" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B163" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C163" s="3" t="s">
+      <c r="B164" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A164" s="2" t="s">
+      <c r="D164" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A165" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B164" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C164" s="2" t="s">
+      <c r="B165" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A165" s="3" t="s">
+      <c r="D165" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A166" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B165" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C165" s="3" t="s">
+      <c r="B166" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A166" s="2" t="s">
+      <c r="D166" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A167" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B166" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C166" s="2" t="s">
+      <c r="B167" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A167" s="3" t="s">
+      <c r="D167" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A168" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B167" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C167" s="3" t="s">
+      <c r="B168" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A168" s="2" t="s">
+      <c r="D168" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A169" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B168" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C168" s="2" t="s">
+      <c r="B169" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A169" s="3" t="s">
+      <c r="D169" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A170" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B169" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C169" s="3" t="s">
+      <c r="B170" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A170" s="2" t="s">
+      <c r="D170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A171" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B170" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C170" s="2" t="s">
+      <c r="B171" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A171" s="3" t="s">
+      <c r="D171" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A172" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B171" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C171" s="3" t="s">
+      <c r="B172" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D171" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A172" s="2" t="s">
+      <c r="D172" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A173" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B173" s="15">
         <v>37.56</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A173" s="3" t="s">
+      <c r="D173" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A174" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B174" s="13">
         <v>10</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A174" s="2" t="s">
+      <c r="D174" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A175" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B174" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C174" s="2" t="s">
+      <c r="B175" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A175" s="3" t="s">
+      <c r="D175" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A176" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B176" s="13">
         <v>30</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A176" s="2" t="s">
+      <c r="D176" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A177" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B176" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C176" s="2" t="s">
+      <c r="B177" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A177" s="3" t="s">
+      <c r="D177" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A178" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B177" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C177" s="3" t="s">
+      <c r="B178" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A178" s="2" t="s">
+      <c r="D178" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A179" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B179" s="15">
         <v>19.98</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A179" s="3" t="s">
+      <c r="D179" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A180" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B180" s="13">
         <v>19.98</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A180" s="2" t="s">
+      <c r="D180" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A181" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B181" s="15">
         <v>20</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A181" s="3" t="s">
+      <c r="D181" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A182" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B181" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C181" s="3" t="s">
+      <c r="B182" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A182" s="2" t="s">
+      <c r="D182" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A183" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B182" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C182" s="2" t="s">
+      <c r="B183" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A183" s="3" t="s">
+      <c r="D183" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A184" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B183" s="6">
+      <c r="B184" s="13">
         <v>137.46</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A184" s="2" t="s">
+      <c r="D184" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A185" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B185" s="15">
         <v>71.930000000000007</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A185" s="3" t="s">
+      <c r="D185" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A186" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B185" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C185" s="3" t="s">
+      <c r="B186" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A186" s="2" t="s">
+      <c r="D186" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A187" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B186" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C186" s="2" t="s">
+      <c r="B187" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A187" s="3" t="s">
+      <c r="D187" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A188" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B187" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C187" s="3" t="s">
+      <c r="B188" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D187" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A188" s="2" t="s">
+      <c r="D188" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A189" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B188" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C188" s="2" t="s">
+      <c r="B189" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A189" s="3" t="s">
+      <c r="D189" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A190" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B189" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C189" s="3" t="s">
+      <c r="B190" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A190" s="2" t="s">
+      <c r="D190" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A191" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B191" s="15">
         <v>10</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A191" s="3" t="s">
+      <c r="D191" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A192" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B191" s="6">
+      <c r="B192" s="13">
         <v>50</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C192" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A192" s="2" t="s">
+      <c r="D192" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A193" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B193" s="15">
         <v>5</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A193" s="3" t="s">
+      <c r="D193" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A194" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B193" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C193" s="3" t="s">
+      <c r="B194" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A194" s="2" t="s">
+      <c r="D194" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A195" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B195" s="15">
         <v>37.56</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A195" s="3" t="s">
+      <c r="D195" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A196" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B195" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C195" s="3" t="s">
+      <c r="B196" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A196" s="2" t="s">
+      <c r="D196" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A197" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B196" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C196" s="2" t="s">
+      <c r="B197" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A197" s="3" t="s">
+      <c r="D197" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A198" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B197" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C197" s="3" t="s">
+      <c r="B198" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A198" s="2" t="s">
+      <c r="D198" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A199" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B198" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C198" s="2" t="s">
+      <c r="B199" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A199" s="3" t="s">
+      <c r="D199" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A200" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B199" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C199" s="3" t="s">
+      <c r="B200" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A200" s="2" t="s">
+      <c r="D200" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A201" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B201" s="15">
         <v>66.599999999999994</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C201" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A201" s="3" t="s">
+      <c r="D201" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A202" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B202" s="13">
         <v>30</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C202" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D201" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E201" s="3"/>
-    </row>
-    <row r="202" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A202" s="2" t="s">
+      <c r="D202" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A203" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B203" s="15">
         <v>60</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A203" s="3" t="s">
+      <c r="D203" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A204" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B204" s="13">
         <v>37.56</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C204" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D203" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E203" s="3"/>
-    </row>
-    <row r="204" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A204" s="2" t="s">
+      <c r="D204" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A205" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B205" s="15">
         <v>66.599999999999994</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A205" s="3" t="s">
+      <c r="D205" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A206" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B205" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C205" s="3" t="s">
+      <c r="B206" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E205" s="3"/>
-    </row>
-    <row r="206" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A206" s="2" t="s">
+      <c r="D206" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A207" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B206" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C206" s="2" t="s">
+      <c r="B207" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A207" s="3" t="s">
+      <c r="D207" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A208" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B207" s="6">
-        <v>6.66</v>
-      </c>
-      <c r="C207" s="3" t="s">
+      <c r="B208" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D207" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E207" s="3"/>
-    </row>
-    <row r="208" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A208" s="2" t="s">
+      <c r="D208" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A209" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B208" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C208" s="2" t="s">
+      <c r="B209" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A209" s="3" t="s">
+      <c r="D209" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A210" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B210" s="13">
         <v>5.21</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C210" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E209" s="3"/>
-    </row>
-    <row r="210" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A210" s="2" t="s">
+      <c r="D210" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A211" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B211" s="15">
         <v>5.2</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A211" s="3" t="s">
+      <c r="D211" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A212" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B212" s="13">
         <v>10</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C212" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D211" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E211" s="3"/>
-    </row>
-    <row r="212" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A212" s="2" t="s">
+      <c r="D212" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A213" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B213" s="15">
         <v>6.67</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A213" s="3" t="s">
+      <c r="D213" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A214" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B214" s="13">
         <v>5.21</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C214" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D213" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E213" s="3"/>
-    </row>
-    <row r="214" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A214" s="2" t="s">
+      <c r="D214" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A215" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B214" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="C214" s="2" t="s">
+      <c r="B215" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="1:8" s="13" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B215" s="15">
-        <f>SUM(B2:B214)</f>
+      <c r="D215" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:8" s="8" customFormat="1" ht="26.25" customHeight="1">
+      <c r="B216" s="16">
+        <f>SUM(B3:B215)</f>
         <v>2440.9300000000017</v>
       </c>
-      <c r="C215" s="14"/>
-      <c r="E215" s="14"/>
-    </row>
-    <row r="217" spans="1:8" ht="26.25" customHeight="1">
-      <c r="D217" s="13"/>
-      <c r="E217" s="15"/>
-      <c r="F217" s="14"/>
-      <c r="G217" s="13"/>
-      <c r="H217" s="14"/>
+      <c r="C216" s="9"/>
+      <c r="E216" s="9"/>
+    </row>
+    <row r="218" spans="1:8" ht="26.25" customHeight="1">
+      <c r="D218" s="8"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="8"/>
+      <c r="H218" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E214" xr:uid="{C6695406-965B-48C8-ABD6-1D4328DC7EBB}"/>
+  <autoFilter ref="A1:E215" xr:uid="{C6695406-965B-48C8-ABD6-1D4328DC7EBB}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resources/readme/SponsorList.xlsx
+++ b/resources/readme/SponsorList.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangy\Desktop\SponsorList\resources\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC99E6-AB48-401A-A3B4-B8A8CAE4F9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A00E70-782A-4CD4-86A0-282115B35B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F3736466-E2D6-4844-9EB6-533C7B82CDE1}"/>
+    <workbookView xWindow="7440" yWindow="60" windowWidth="28800" windowHeight="15345" xr2:uid="{F3736466-E2D6-4844-9EB6-533C7B82CDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$217</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="302">
   <si>
     <t>赞助者</t>
   </si>
@@ -931,6 +931,42 @@
   </si>
   <si>
     <t>2024's First Consumption on you</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40485B"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40485B"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V你50个0.2元</t>
+  </si>
+  <si>
+    <t>元旦快乐.</t>
+  </si>
+  <si>
+    <t>如愿</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -940,9 +976,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +1025,26 @@
       <sz val="12"/>
       <color rgb="FF40485B"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF40485B"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF40485B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF40485B"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1048,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,25 +1141,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1420,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6695406-965B-48C8-ABD6-1D4328DC7EBB}">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1"/>
@@ -1453,11 +1518,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A2" s="11" t="s">
-        <v>293</v>
+      <c r="A2" s="19" t="s">
+        <v>297</v>
       </c>
       <c r="B2" s="13">
-        <v>20.239999999999998</v>
+        <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>294</v>
@@ -1466,76 +1531,78 @@
         <v>295</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A3" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="13">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="14">
-        <v>50</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="13">
-        <v>0.52</v>
+        <v>1.8</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="15">
         <v>1</v>
@@ -1550,77 +1617,79 @@
     </row>
     <row r="8" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" s="13">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>0.52</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B9" s="15">
-        <v>68</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" s="13">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B11" s="15">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>68</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -1629,60 +1698,60 @@
     </row>
     <row r="13" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B13" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14" s="13">
-        <v>6.66</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B15" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="13">
         <v>6.66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
@@ -1691,141 +1760,141 @@
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B17" s="15">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="13">
-        <v>21.5</v>
+        <v>6.66</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" s="15">
-        <v>11.14</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>5.2</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>5</v>
+        <v>21.5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21" s="15">
-        <v>6.66</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>11.14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13">
-        <v>6.66</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" s="15">
-        <v>1.1399999999999999</v>
+        <v>6.66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B24" s="13">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>41</v>
+        <v>6.66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="15">
-        <v>6.97</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -1834,28 +1903,28 @@
     </row>
     <row r="26" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B26" s="13">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" s="15">
-        <v>30</v>
+        <v>6.97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
@@ -1864,59 +1933,57 @@
     </row>
     <row r="28" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" s="13">
-        <v>6.66</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="15">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" s="13">
-        <v>5</v>
+        <v>6.66</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B31" s="15">
-        <v>2.64</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>51</v>
@@ -1924,79 +1991,81 @@
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B32" s="13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B33" s="15">
-        <v>10</v>
+        <v>2.64</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B34" s="13">
-        <v>11.11</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>58</v>
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B35" s="15">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="13">
-        <v>6.66</v>
+        <v>11.11</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>12</v>
@@ -2005,43 +2074,43 @@
     </row>
     <row r="37" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="15">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>60</v>
+        <v>5.2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B38" s="13">
         <v>6.66</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>62</v>
+      <c r="C38" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="15">
-        <v>5</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>12</v>
@@ -2050,58 +2119,58 @@
     </row>
     <row r="40" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="13">
-        <v>9</v>
+        <v>6.66</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A41" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B41" s="15">
-        <v>6.66</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="13">
-        <v>6.66</v>
+        <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B43" s="15">
-        <v>1</v>
+        <v>6.66</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>7</v>
@@ -2110,28 +2179,28 @@
     </row>
     <row r="44" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B44" s="13">
-        <v>1</v>
+        <v>6.66</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B45" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>7</v>
@@ -2140,28 +2209,28 @@
     </row>
     <row r="46" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B46" s="13">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B47" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>7</v>
@@ -2170,133 +2239,133 @@
     </row>
     <row r="48" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="13">
-        <v>2.2200000000000002</v>
+        <v>2.33</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" s="15">
-        <v>6.66</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B50" s="13">
-        <v>6.66</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B51" s="15">
-        <v>5</v>
+        <v>6.66</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A52" s="3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B52" s="13">
-        <v>6</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>75</v>
+        <v>6.66</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B53" s="15">
-        <v>6.66</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A54" s="3" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B54" s="13">
-        <v>5</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>79</v>
+        <v>6</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B55" s="15">
-        <v>5</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>79</v>
+        <v>6.66</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A56" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B56" s="13">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
@@ -2305,43 +2374,43 @@
     </row>
     <row r="57" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B57" s="15">
-        <v>10</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A58" s="3" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B58" s="13">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B59" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>7</v>
@@ -2350,13 +2419,13 @@
     </row>
     <row r="60" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A60" s="3" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B60" s="13">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>7</v>
@@ -2365,148 +2434,148 @@
     </row>
     <row r="61" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B61" s="15">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A62" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="13">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B63" s="15">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A64" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B64" s="13">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B65" s="15">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A66" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B66" s="13">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B67" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A68" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B68" s="13">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="15">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A70" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B70" s="13">
-        <v>6.66</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>23</v>
@@ -2515,28 +2584,28 @@
     </row>
     <row r="71" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B71" s="15">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A72" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B72" s="13">
         <v>6.66</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>23</v>
@@ -2545,13 +2614,13 @@
     </row>
     <row r="73" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B73" s="15">
         <v>5</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>23</v>
@@ -2560,13 +2629,13 @@
     </row>
     <row r="74" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A74" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B74" s="13">
-        <v>10</v>
+        <v>6.66</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>23</v>
@@ -2575,58 +2644,58 @@
     </row>
     <row r="75" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B75" s="15">
-        <v>1</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>111</v>
+        <v>5</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A76" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B76" s="13">
         <v>10</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B77" s="15">
-        <v>5</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A78" s="3" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B78" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>12</v>
@@ -2635,43 +2704,43 @@
     </row>
     <row r="79" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B79" s="15">
-        <v>1.45</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A80" s="3" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B80" s="13">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B81" s="15">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>7</v>
@@ -2680,13 +2749,13 @@
     </row>
     <row r="82" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A82" s="3" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B82" s="13">
-        <v>3</v>
+        <v>1.46</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>7</v>
@@ -2695,7 +2764,7 @@
     </row>
     <row r="83" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B83" s="15">
         <v>1</v>
@@ -2710,135 +2779,135 @@
     </row>
     <row r="84" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A84" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A86" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B86" s="13">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B87" s="15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A88" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="13">
         <v>5</v>
       </c>
-      <c r="B88" s="13">
-        <v>40</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>130</v>
+      <c r="C88" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>131</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B89" s="15">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A90" s="3" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="B90" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="C90" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>130</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B91" s="15">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A92" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B92" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>7</v>
@@ -2847,25 +2916,25 @@
     </row>
     <row r="93" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B93" s="15">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A94" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B94" s="13">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>135</v>
@@ -2877,58 +2946,58 @@
     </row>
     <row r="95" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A95" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B95" s="15">
-        <v>6.66</v>
+        <v>1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A96" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96" s="13">
-        <v>4.9800000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B97" s="15">
-        <v>30</v>
+        <v>6.66</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A98" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B98" s="13">
-        <v>6.66</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>23</v>
@@ -2937,28 +3006,28 @@
     </row>
     <row r="99" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A99" s="2" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="B99" s="15">
-        <v>5</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>143</v>
+        <v>30</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A100" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B100" s="13">
-        <v>5</v>
+        <v>6.66</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>23</v>
@@ -2967,28 +3036,28 @@
     </row>
     <row r="101" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="B101" s="15">
-        <v>6.66</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>146</v>
+        <v>5</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E101" s="5"/>
     </row>
     <row r="102" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A102" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B102" s="13">
         <v>5</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>23</v>
@@ -2997,28 +3066,28 @@
     </row>
     <row r="103" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A103" s="2" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B103" s="15">
-        <v>30</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>149</v>
+        <v>6.66</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A104" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B104" s="13">
-        <v>19.98</v>
+        <v>5</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>23</v>
@@ -3027,25 +3096,25 @@
     </row>
     <row r="105" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A105" s="2" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="B105" s="15">
-        <v>5</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>151</v>
+        <v>30</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A106" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B106" s="13">
-        <v>6.66</v>
+        <v>19.98</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>151</v>
@@ -3057,13 +3126,13 @@
     </row>
     <row r="107" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B107" s="15">
         <v>5</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>23</v>
@@ -3072,73 +3141,73 @@
     </row>
     <row r="108" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A108" s="3" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="B108" s="13">
-        <v>30</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>155</v>
+        <v>6.66</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A109" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B109" s="15">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A110" s="3" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="B110" s="13">
-        <v>16.66</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>159</v>
+        <v>30</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E110" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="B111" s="15">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A112" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B112" s="13">
-        <v>10</v>
+        <v>16.66</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>23</v>
@@ -3147,13 +3216,13 @@
     </row>
     <row r="113" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A113" s="2" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="B113" s="15">
-        <v>6.66</v>
+        <v>5</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>23</v>
@@ -3162,13 +3231,13 @@
     </row>
     <row r="114" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A114" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B114" s="13">
-        <v>6.66</v>
+        <v>10</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>23</v>
@@ -3177,28 +3246,28 @@
     </row>
     <row r="115" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A115" s="2" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="B115" s="15">
-        <v>30</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>167</v>
+        <v>6.66</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A116" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B116" s="13">
-        <v>16</v>
+        <v>6.66</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>23</v>
@@ -3207,28 +3276,28 @@
     </row>
     <row r="117" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A117" s="2" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="B117" s="15">
-        <v>6.66</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>171</v>
+        <v>30</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E117" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A118" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B118" s="13">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>23</v>
@@ -3237,13 +3306,13 @@
     </row>
     <row r="119" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A119" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B119" s="15">
         <v>6.66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>23</v>
@@ -3252,13 +3321,13 @@
     </row>
     <row r="120" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A120" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B120" s="13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>23</v>
@@ -3267,13 +3336,13 @@
     </row>
     <row r="121" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A121" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B121" s="15">
-        <v>40</v>
+        <v>6.66</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>23</v>
@@ -3282,13 +3351,13 @@
     </row>
     <row r="122" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A122" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B122" s="13">
-        <v>1.66</v>
+        <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>23</v>
@@ -3297,13 +3366,13 @@
     </row>
     <row r="123" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A123" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B123" s="15">
-        <v>1.66</v>
+        <v>40</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>23</v>
@@ -3312,13 +3381,13 @@
     </row>
     <row r="124" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A124" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B124" s="13">
-        <v>6.66</v>
+        <v>1.66</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>23</v>
@@ -3327,13 +3396,13 @@
     </row>
     <row r="125" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A125" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B125" s="15">
-        <v>10</v>
+        <v>1.66</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>23</v>
@@ -3342,13 +3411,13 @@
     </row>
     <row r="126" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A126" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B126" s="13">
         <v>6.66</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>23</v>
@@ -3357,13 +3426,13 @@
     </row>
     <row r="127" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A127" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B127" s="15">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>23</v>
@@ -3372,10 +3441,10 @@
     </row>
     <row r="128" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A128" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B128" s="13">
-        <v>5</v>
+        <v>6.66</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>187</v>
@@ -3387,13 +3456,13 @@
     </row>
     <row r="129" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A129" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B129" s="15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>23</v>
@@ -3402,13 +3471,13 @@
     </row>
     <row r="130" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A130" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B130" s="13">
-        <v>6.66</v>
+        <v>5</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>23</v>
@@ -3417,13 +3486,13 @@
     </row>
     <row r="131" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A131" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B131" s="15">
-        <v>1.66</v>
+        <v>10</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>23</v>
@@ -3432,13 +3501,13 @@
     </row>
     <row r="132" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A132" s="3" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B132" s="13">
         <v>6.66</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>23</v>
@@ -3447,28 +3516,28 @@
     </row>
     <row r="133" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A133" s="2" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="B133" s="15">
-        <v>20</v>
-      </c>
-      <c r="C133" s="5" t="s">
+        <v>1.66</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A134" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B134" s="13">
-        <v>10</v>
+        <v>6.66</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>23</v>
@@ -3477,28 +3546,28 @@
     </row>
     <row r="135" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A135" s="2" t="s">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="B135" s="15">
-        <v>30</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>198</v>
+        <v>20</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E135" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A136" s="3" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B136" s="13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>23</v>
@@ -3507,13 +3576,13 @@
     </row>
     <row r="137" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A137" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B137" s="15">
-        <v>6.66</v>
+        <v>30</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>23</v>
@@ -3522,13 +3591,13 @@
     </row>
     <row r="138" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A138" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B138" s="13">
-        <v>1.66</v>
+        <v>30</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>23</v>
@@ -3537,13 +3606,13 @@
     </row>
     <row r="139" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A139" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B139" s="15">
-        <v>5</v>
+        <v>6.66</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>23</v>
@@ -3552,13 +3621,13 @@
     </row>
     <row r="140" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A140" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B140" s="13">
-        <v>5</v>
+        <v>1.66</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>23</v>
@@ -3567,13 +3636,13 @@
     </row>
     <row r="141" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="B141" s="15">
-        <v>6.66</v>
+        <v>5</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>23</v>
@@ -3582,13 +3651,13 @@
     </row>
     <row r="142" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A142" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B142" s="13">
-        <v>6.66</v>
+        <v>5</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>23</v>
@@ -3597,13 +3666,13 @@
     </row>
     <row r="143" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A143" s="2" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="B143" s="15">
         <v>6.66</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>23</v>
@@ -3612,13 +3681,13 @@
     </row>
     <row r="144" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A144" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B144" s="13">
         <v>6.66</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>23</v>
@@ -3627,13 +3696,13 @@
     </row>
     <row r="145" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A145" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B145" s="15">
-        <v>5</v>
+        <v>6.66</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>23</v>
@@ -3642,13 +3711,13 @@
     </row>
     <row r="146" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A146" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B146" s="13">
-        <v>1.66</v>
+        <v>6.66</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>23</v>
@@ -3657,13 +3726,13 @@
     </row>
     <row r="147" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A147" s="2" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B147" s="15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>23</v>
@@ -3672,13 +3741,13 @@
     </row>
     <row r="148" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A148" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B148" s="13">
-        <v>6.66</v>
+        <v>1.66</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>23</v>
@@ -3687,13 +3756,13 @@
     </row>
     <row r="149" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A149" s="2" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B149" s="15">
-        <v>6.66</v>
+        <v>30</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>23</v>
@@ -3702,13 +3771,13 @@
     </row>
     <row r="150" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A150" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B150" s="13">
         <v>6.66</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>23</v>
@@ -3717,13 +3786,13 @@
     </row>
     <row r="151" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A151" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B151" s="15">
-        <v>37.56</v>
+        <v>6.66</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>23</v>
@@ -3732,13 +3801,13 @@
     </row>
     <row r="152" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A152" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B152" s="13">
-        <v>5</v>
+        <v>6.66</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>23</v>
@@ -3747,13 +3816,13 @@
     </row>
     <row r="153" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A153" s="2" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="B153" s="15">
-        <v>6.66</v>
+        <v>37.56</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>23</v>
@@ -3762,13 +3831,13 @@
     </row>
     <row r="154" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A154" s="3" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="B154" s="13">
         <v>5</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>23</v>
@@ -3777,13 +3846,13 @@
     </row>
     <row r="155" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A155" s="2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B155" s="15">
         <v>6.66</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>23</v>
@@ -3792,10 +3861,10 @@
     </row>
     <row r="156" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A156" s="3" t="s">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="B156" s="13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>226</v>
@@ -3807,10 +3876,10 @@
     </row>
     <row r="157" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A157" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B157" s="15">
-        <v>10</v>
+        <v>6.66</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>226</v>
@@ -3822,13 +3891,13 @@
     </row>
     <row r="158" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A158" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B158" s="13">
-        <v>71.930000000000007</v>
+        <v>20</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>23</v>
@@ -3837,13 +3906,13 @@
     </row>
     <row r="159" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A159" s="2" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="B159" s="15">
-        <v>6.66</v>
+        <v>10</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>23</v>
@@ -3852,13 +3921,13 @@
     </row>
     <row r="160" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A160" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B160" s="13">
-        <v>3.32</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>23</v>
@@ -3867,13 +3936,13 @@
     </row>
     <row r="161" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A161" s="2" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="B161" s="15">
         <v>6.66</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>23</v>
@@ -3882,10 +3951,10 @@
     </row>
     <row r="162" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A162" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B162" s="13">
-        <v>6.66</v>
+        <v>3.32</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>232</v>
@@ -3897,7 +3966,7 @@
     </row>
     <row r="163" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A163" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B163" s="15">
         <v>6.66</v>
@@ -3912,7 +3981,7 @@
     </row>
     <row r="164" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A164" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B164" s="13">
         <v>6.66</v>
@@ -3927,7 +3996,7 @@
     </row>
     <row r="165" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A165" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B165" s="15">
         <v>6.66</v>
@@ -3942,7 +4011,7 @@
     </row>
     <row r="166" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A166" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B166" s="13">
         <v>6.66</v>
@@ -3957,13 +4026,13 @@
     </row>
     <row r="167" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A167" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B167" s="15">
         <v>6.66</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>23</v>
@@ -3972,13 +4041,13 @@
     </row>
     <row r="168" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A168" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B168" s="13">
         <v>6.66</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>23</v>
@@ -3987,13 +4056,13 @@
     </row>
     <row r="169" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A169" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B169" s="15">
         <v>6.66</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>23</v>
@@ -4002,13 +4071,13 @@
     </row>
     <row r="170" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A170" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B170" s="13">
         <v>6.66</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>23</v>
@@ -4017,7 +4086,7 @@
     </row>
     <row r="171" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A171" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B171" s="15">
         <v>6.66</v>
@@ -4032,7 +4101,7 @@
     </row>
     <row r="172" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A172" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B172" s="13">
         <v>6.66</v>
@@ -4047,10 +4116,10 @@
     </row>
     <row r="173" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A173" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B173" s="15">
-        <v>37.56</v>
+        <v>6.66</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>243</v>
@@ -4062,13 +4131,13 @@
     </row>
     <row r="174" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A174" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B174" s="13">
-        <v>10</v>
+        <v>6.66</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>23</v>
@@ -4077,13 +4146,13 @@
     </row>
     <row r="175" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A175" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B175" s="15">
-        <v>6.66</v>
+        <v>37.56</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>23</v>
@@ -4092,10 +4161,10 @@
     </row>
     <row r="176" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A176" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B176" s="13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>249</v>
@@ -4107,7 +4176,7 @@
     </row>
     <row r="177" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A177" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B177" s="15">
         <v>6.66</v>
@@ -4122,13 +4191,13 @@
     </row>
     <row r="178" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A178" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B178" s="13">
-        <v>6.66</v>
+        <v>30</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>23</v>
@@ -4137,13 +4206,13 @@
     </row>
     <row r="179" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A179" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B179" s="15">
-        <v>19.98</v>
+        <v>6.66</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>23</v>
@@ -4152,13 +4221,13 @@
     </row>
     <row r="180" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A180" s="3" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="B180" s="13">
-        <v>19.98</v>
+        <v>6.66</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>23</v>
@@ -4167,13 +4236,13 @@
     </row>
     <row r="181" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A181" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B181" s="15">
-        <v>20</v>
+        <v>19.98</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>23</v>
@@ -4182,13 +4251,13 @@
     </row>
     <row r="182" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A182" s="3" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="B182" s="13">
-        <v>6.66</v>
+        <v>19.98</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>23</v>
@@ -4197,13 +4266,13 @@
     </row>
     <row r="183" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A183" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B183" s="15">
-        <v>6.66</v>
+        <v>20</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>23</v>
@@ -4212,10 +4281,10 @@
     </row>
     <row r="184" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A184" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B184" s="13">
-        <v>137.46</v>
+        <v>6.66</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>259</v>
@@ -4227,10 +4296,10 @@
     </row>
     <row r="185" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A185" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B185" s="15">
-        <v>71.930000000000007</v>
+        <v>6.66</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>259</v>
@@ -4242,13 +4311,13 @@
     </row>
     <row r="186" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A186" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B186" s="13">
-        <v>6.66</v>
+        <v>137.46</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>23</v>
@@ -4257,13 +4326,13 @@
     </row>
     <row r="187" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A187" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B187" s="15">
-        <v>6.66</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>23</v>
@@ -4272,13 +4341,13 @@
     </row>
     <row r="188" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A188" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B188" s="13">
         <v>6.66</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>23</v>
@@ -4287,13 +4356,13 @@
     </row>
     <row r="189" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A189" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B189" s="15">
         <v>6.66</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>23</v>
@@ -4302,13 +4371,13 @@
     </row>
     <row r="190" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A190" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B190" s="13">
         <v>6.66</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>23</v>
@@ -4317,10 +4386,10 @@
     </row>
     <row r="191" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A191" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B191" s="15">
-        <v>10</v>
+        <v>6.66</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>269</v>
@@ -4332,10 +4401,10 @@
     </row>
     <row r="192" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A192" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B192" s="13">
-        <v>50</v>
+        <v>6.66</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>269</v>
@@ -4347,10 +4416,10 @@
     </row>
     <row r="193" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A193" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B193" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>269</v>
@@ -4362,10 +4431,10 @@
     </row>
     <row r="194" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A194" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B194" s="13">
-        <v>6.66</v>
+        <v>50</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>269</v>
@@ -4377,10 +4446,10 @@
     </row>
     <row r="195" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A195" s="2" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="B195" s="15">
-        <v>37.56</v>
+        <v>5</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>269</v>
@@ -4392,7 +4461,7 @@
     </row>
     <row r="196" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A196" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B196" s="13">
         <v>6.66</v>
@@ -4407,10 +4476,10 @@
     </row>
     <row r="197" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A197" s="2" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B197" s="15">
-        <v>6.66</v>
+        <v>37.56</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>269</v>
@@ -4422,7 +4491,7 @@
     </row>
     <row r="198" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A198" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B198" s="13">
         <v>6.66</v>
@@ -4437,13 +4506,13 @@
     </row>
     <row r="199" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A199" s="2" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="B199" s="15">
         <v>6.66</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>23</v>
@@ -4452,13 +4521,13 @@
     </row>
     <row r="200" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A200" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B200" s="13">
         <v>6.66</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>23</v>
@@ -4467,13 +4536,13 @@
     </row>
     <row r="201" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A201" s="2" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="B201" s="15">
-        <v>66.599999999999994</v>
+        <v>6.66</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>23</v>
@@ -4482,13 +4551,13 @@
     </row>
     <row r="202" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A202" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B202" s="13">
-        <v>30</v>
+        <v>6.66</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>23</v>
@@ -4497,13 +4566,13 @@
     </row>
     <row r="203" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A203" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B203" s="15">
-        <v>60</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>23</v>
@@ -4515,7 +4584,7 @@
         <v>281</v>
       </c>
       <c r="B204" s="13">
-        <v>37.56</v>
+        <v>30</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>282</v>
@@ -4527,10 +4596,10 @@
     </row>
     <row r="205" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A205" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B205" s="15">
-        <v>66.599999999999994</v>
+        <v>60</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>282</v>
@@ -4542,10 +4611,10 @@
     </row>
     <row r="206" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A206" s="3" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="B206" s="13">
-        <v>6.66</v>
+        <v>37.56</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>282</v>
@@ -4557,10 +4626,10 @@
     </row>
     <row r="207" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A207" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B207" s="15">
-        <v>6.66</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>282</v>
@@ -4572,7 +4641,7 @@
     </row>
     <row r="208" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A208" s="3" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="B208" s="13">
         <v>6.66</v>
@@ -4587,13 +4656,13 @@
     </row>
     <row r="209" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A209" s="2" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="B209" s="15">
         <v>6.66</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>23</v>
@@ -4602,13 +4671,13 @@
     </row>
     <row r="210" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A210" s="3" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="B210" s="13">
-        <v>5.21</v>
+        <v>6.66</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>23</v>
@@ -4617,13 +4686,13 @@
     </row>
     <row r="211" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A211" s="2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B211" s="15">
-        <v>5.2</v>
+        <v>6.66</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>23</v>
@@ -4632,13 +4701,13 @@
     </row>
     <row r="212" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A212" s="3" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B212" s="13">
-        <v>10</v>
+        <v>5.21</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>23</v>
@@ -4647,13 +4716,13 @@
     </row>
     <row r="213" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A213" s="2" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="B213" s="15">
-        <v>6.67</v>
+        <v>5.2</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>23</v>
@@ -4662,13 +4731,13 @@
     </row>
     <row r="214" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A214" s="3" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="B214" s="13">
-        <v>5.21</v>
+        <v>10</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>23</v>
@@ -4677,36 +4746,66 @@
     </row>
     <row r="215" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A215" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B215" s="15">
+        <v>6.67</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A216" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B216" s="13">
+        <v>5.21</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A217" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B215" s="15">
-        <v>6.66</v>
-      </c>
-      <c r="C215" s="2" t="s">
+      <c r="B217" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="1:8" s="8" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B216" s="16">
-        <f>SUM(B3:B215)</f>
+      <c r="D217" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:8" s="8" customFormat="1" ht="26.25" customHeight="1">
+      <c r="B218" s="16">
+        <f>SUM(B5:B217)</f>
         <v>2440.9300000000017</v>
       </c>
-      <c r="C216" s="9"/>
-      <c r="E216" s="9"/>
-    </row>
-    <row r="218" spans="1:8" ht="26.25" customHeight="1">
-      <c r="D218" s="8"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="9"/>
+      <c r="C218" s="9"/>
+      <c r="E218" s="9"/>
+    </row>
+    <row r="220" spans="1:8" ht="26.25" customHeight="1">
+      <c r="D220" s="8"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="8"/>
+      <c r="H220" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E215" xr:uid="{C6695406-965B-48C8-ABD6-1D4328DC7EBB}"/>
+  <autoFilter ref="A1:E217" xr:uid="{C6695406-965B-48C8-ABD6-1D4328DC7EBB}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resources/readme/SponsorList.xlsx
+++ b/resources/readme/SponsorList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangy\Desktop\SponsorList\resources\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A00E70-782A-4CD4-86A0-282115B35B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C821BF6-6A60-4907-B206-912FED8C55A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="60" windowWidth="28800" windowHeight="15345" xr2:uid="{F3736466-E2D6-4844-9EB6-533C7B82CDE1}"/>
+    <workbookView xWindow="570" yWindow="615" windowWidth="28800" windowHeight="15345" xr2:uid="{F3736466-E2D6-4844-9EB6-533C7B82CDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6695406-965B-48C8-ABD6-1D4328DC7EBB}">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1"/>
@@ -4790,10 +4790,7 @@
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:8" s="8" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B218" s="16">
-        <f>SUM(B5:B217)</f>
-        <v>2440.9300000000017</v>
-      </c>
+      <c r="B218" s="16"/>
       <c r="C218" s="9"/>
       <c r="E218" s="9"/>
     </row>

--- a/resources/readme/SponsorList.xlsx
+++ b/resources/readme/SponsorList.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangy\Desktop\Files\SponsorList\resources\readme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EDEE57-E56B-4450-B706-E139A372169F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF72967-2869-498B-86D3-C946DFDE29B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{F3736466-E2D6-4844-9EB6-533C7B82CDE1}"/>
+    <workbookView xWindow="3864" yWindow="1524" windowWidth="23040" windowHeight="12120" xr2:uid="{F3736466-E2D6-4844-9EB6-533C7B82CDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$240</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="322">
   <si>
     <t>赞助者</t>
   </si>
@@ -57,24 +57,69 @@
     <t>新年第一个废物</t>
   </si>
   <si>
+    <t>2023.12.31</t>
+  </si>
+  <si>
     <t>QQ</t>
   </si>
   <si>
+    <t>k总，新年快乐</t>
+  </si>
+  <si>
+    <t>魚尾的假天</t>
+  </si>
+  <si>
     <t>L!cht</t>
   </si>
   <si>
+    <t>如常</t>
+  </si>
+  <si>
     <t>微信</t>
   </si>
   <si>
+    <t>k佬我爱你</t>
+  </si>
+  <si>
     <t>霖风時雨</t>
   </si>
   <si>
+    <t>新年快乐</t>
+  </si>
+  <si>
+    <t>2023.12.27</t>
+  </si>
+  <si>
+    <t>2023.12.03</t>
+  </si>
+  <si>
+    <t>2023.11.29</t>
+  </si>
+  <si>
     <t>Immortal</t>
   </si>
   <si>
+    <t>2023.11.25</t>
+  </si>
+  <si>
+    <t>😡</t>
+  </si>
+  <si>
+    <t>小芝士</t>
+  </si>
+  <si>
     <t>爱发电</t>
   </si>
   <si>
+    <t>2023.11.24</t>
+  </si>
+  <si>
+    <t>星空颂歌</t>
+  </si>
+  <si>
+    <t>2023.11.23</t>
+  </si>
+  <si>
     <t>fafa</t>
   </si>
   <si>
@@ -873,6 +918,54 @@
     <t>2022.09.11</t>
   </si>
   <si>
+    <t>zyb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40485B"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40485B"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐔</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V你50个0.2元</t>
+  </si>
+  <si>
+    <t>元旦快乐.</t>
+  </si>
+  <si>
+    <t>如愿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>小朋友</t>
   </si>
   <si>
@@ -925,6 +1018,16 @@
   </si>
   <si>
     <t>2024.01.07</t>
+  </si>
+  <si>
+    <t>轻羽</t>
+  </si>
+  <si>
+    <t>给你发发癫₍˄·͈༝·͈˄*₎◞</t>
+  </si>
+  <si>
+    <t>hny</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -935,7 +1038,7 @@
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,6 +1080,39 @@
       <name val="S"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF40485B"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF40485B"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF40485B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF40485B"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1034,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1068,11 +1204,17 @@
     <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1081,6 +1223,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1397,26 +1557,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6695406-965B-48C8-ABD6-1D4328DC7EBB}">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:P243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="17" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" style="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="77.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="71.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="25.8" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1429,3293 +1589,3756 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>278</v>
+    <row r="2" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="B2" s="13">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="15">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="13">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A9" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="13">
+        <v>16.88</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="15">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="13">
+        <v>3.58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="15">
+        <v>6.88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="13">
+        <v>7.77</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="15">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="13">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+    </row>
+    <row r="16" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="15">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+    </row>
+    <row r="17" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+    </row>
+    <row r="18" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+    </row>
+    <row r="19" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="13">
+        <v>5.14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+    </row>
+    <row r="20" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1.23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="15">
+        <v>5.55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A25" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" s="13">
+        <v>10</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A26" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A27" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="13">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="14">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="12">
+    </row>
+    <row r="29" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="13">
-        <v>16.88</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A5" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="12">
-        <v>38.880000000000003</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="13">
-        <v>3.58</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A7" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" s="12">
-        <v>6.88</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" s="13">
-        <v>7.77</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A9" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="12">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="13">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B11" s="12">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="13">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="13">
-        <v>5.14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A15" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="12">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A16" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="13">
-        <v>1.23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A17" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12">
-        <v>5.55</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12">
-        <v>21.5</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="13">
-        <v>11.14</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="12">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="13">
-        <v>6.66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="12">
-        <v>6.66</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="12">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13">
-        <v>6.97</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="12">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="13">
-        <v>30</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="12">
-        <v>6.66</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="13">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="12">
         <v>5</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>36</v>
+      <c r="B33" s="13">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="13">
-        <v>2.64</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B34" s="15">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="12">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="B35" s="13">
+        <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="13">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B36" s="15">
+        <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="12">
-        <v>11.11</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="B37" s="13">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="13">
-        <v>5.2</v>
+        <v>19</v>
+      </c>
+      <c r="B38" s="15">
+        <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="12">
-        <v>6.66</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="B39" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="13">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="B40" s="15">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="12">
+        <v>25</v>
+      </c>
+      <c r="B41" s="13">
         <v>6.66</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="13">
-        <v>5</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="B42" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="12">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="B43" s="13">
+        <v>21.5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="13">
-        <v>6.66</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="B44" s="15">
+        <v>11.14</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="12">
-        <v>6.66</v>
+        <v>19</v>
+      </c>
+      <c r="B45" s="13">
+        <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="13">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B46" s="15">
+        <v>6.66</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="12">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B47" s="13">
+        <v>6.66</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="13">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="B48" s="15">
+        <v>1.1399999999999999</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="12">
-        <v>2.33</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="B49" s="13">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="13">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="B50" s="15">
+        <v>6.97</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="12">
-        <v>2.2200000000000002</v>
+        <v>44</v>
+      </c>
+      <c r="B51" s="13">
+        <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="13">
-        <v>6.66</v>
+        <v>46</v>
+      </c>
+      <c r="B52" s="15">
+        <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="12">
+        <v>48</v>
+      </c>
+      <c r="B53" s="13">
         <v>6.66</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="13">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="B54" s="15">
+        <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="12">
-        <v>6</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="B55" s="13">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="13">
-        <v>6.66</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="15">
+        <v>2.64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="12">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="13">
+        <v>0.5</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="13">
-        <v>5</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="B58" s="15">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A59" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="B59" s="13">
+        <v>11.11</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="13">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="B60" s="15">
+        <v>5.2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="B61" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A62" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="13">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="B62" s="15">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="12">
-        <v>0.5</v>
+        <v>61</v>
+      </c>
+      <c r="B63" s="13">
+        <v>6.66</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="B64" s="15">
+        <v>5</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="12">
-        <v>2.5</v>
+        <v>63</v>
+      </c>
+      <c r="B65" s="13">
+        <v>9</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A66" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="13">
-        <v>0.3</v>
+        <v>10</v>
+      </c>
+      <c r="B66" s="15">
+        <v>6.66</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A67" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="12">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="B67" s="13">
+        <v>6.66</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="13">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="B68" s="15">
+        <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A69" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="12">
-        <v>5.7</v>
+        <v>14</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A70" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" s="13">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B70" s="15">
+        <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A71" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="12">
-        <v>5</v>
+        <v>70</v>
+      </c>
+      <c r="B71" s="13">
+        <v>2.33</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A72" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="13">
-        <v>2.1</v>
+        <v>71</v>
+      </c>
+      <c r="B72" s="15">
+        <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A73" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="12">
-        <v>6.66</v>
+        <v>71</v>
+      </c>
+      <c r="B73" s="13">
+        <v>2.2200000000000002</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="13">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="B74" s="15">
+        <v>6.66</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A75" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13">
         <v>6.66</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A76" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" s="13">
+        <v>10</v>
+      </c>
+      <c r="B76" s="15">
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A77" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" s="12">
-        <v>10</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>94</v>
+        <v>32</v>
+      </c>
+      <c r="B77" s="13">
+        <v>6</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A78" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="13">
-        <v>1</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="B78" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A79" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="12">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="B79" s="13">
+        <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A80" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" s="13">
+        <v>32</v>
+      </c>
+      <c r="B80" s="15">
         <v>5</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>100</v>
+      <c r="C80" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A81" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="12">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="B81" s="13">
+        <v>5.2</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A82" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82" s="13">
-        <v>1.45</v>
+        <v>80</v>
+      </c>
+      <c r="B82" s="15">
+        <v>10</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A83" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="12">
-        <v>1.46</v>
+        <v>30</v>
+      </c>
+      <c r="B83" s="13">
+        <v>0.52</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A84" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="13">
+        <v>84</v>
+      </c>
+      <c r="B84" s="15">
         <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A85" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" s="12">
-        <v>3</v>
+        <v>86</v>
+      </c>
+      <c r="B85" s="13">
+        <v>0.5</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A86" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B86" s="13">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="B86" s="15">
+        <v>2.5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A87" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B87" s="12">
-        <v>0.1</v>
+        <v>87</v>
+      </c>
+      <c r="B87" s="13">
+        <v>2.5</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A88" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B88" s="13">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="B88" s="15">
+        <v>0.3</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A89" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B89" s="12">
+        <v>92</v>
+      </c>
+      <c r="B89" s="13">
         <v>5</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A90" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B90" s="13">
-        <v>25</v>
+        <v>94</v>
+      </c>
+      <c r="B90" s="15">
+        <v>10</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="12">
-        <v>40</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>115</v>
+        <v>95</v>
+      </c>
+      <c r="B91" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A92" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" s="13">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="B92" s="15">
+        <v>5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A93" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="12">
-        <v>0.1</v>
+        <v>98</v>
+      </c>
+      <c r="B93" s="13">
+        <v>5</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A94" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="13">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="B94" s="15">
+        <v>2.1</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A95" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" s="12">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="B95" s="13">
+        <v>6.66</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A96" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B96" s="13">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="B96" s="15">
+        <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A97" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B97" s="12">
-        <v>1.7</v>
+        <v>104</v>
+      </c>
+      <c r="B97" s="13">
+        <v>6.66</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A98" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" s="13">
-        <v>6.66</v>
+        <v>106</v>
+      </c>
+      <c r="B98" s="15">
+        <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A99" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" s="12">
-        <v>4.9800000000000004</v>
+        <v>108</v>
+      </c>
+      <c r="B99" s="13">
+        <v>10</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A100" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B100" s="13">
-        <v>30</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
+      </c>
+      <c r="B100" s="15">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A101" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B101" s="12">
-        <v>6.66</v>
+        <v>112</v>
+      </c>
+      <c r="B101" s="13">
+        <v>10</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="15">
         <v>5</v>
       </c>
-      <c r="B102" s="13">
-        <v>5</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>128</v>
+      <c r="C102" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A103" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B103" s="12">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="B103" s="13">
+        <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A104" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B104" s="13">
-        <v>6.66</v>
+        <v>117</v>
+      </c>
+      <c r="B104" s="15">
+        <v>1.45</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A105" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B105" s="12">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="B105" s="13">
+        <v>1.46</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="13">
-        <v>30</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>134</v>
+        <v>120</v>
+      </c>
+      <c r="B106" s="15">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A107" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B107" s="12">
-        <v>19.98</v>
+        <v>122</v>
+      </c>
+      <c r="B107" s="13">
+        <v>3</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A108" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" s="13">
-        <v>5</v>
+        <v>123</v>
+      </c>
+      <c r="B108" s="15">
+        <v>1</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A109" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B109" s="12">
-        <v>6.66</v>
+        <v>123</v>
+      </c>
+      <c r="B109" s="13">
+        <v>0.1</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A110" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B110" s="13">
-        <v>5</v>
+        <v>125</v>
+      </c>
+      <c r="B110" s="15">
+        <v>10</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A111" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" s="13">
         <v>5</v>
       </c>
-      <c r="B111" s="12">
-        <v>30</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>140</v>
+      <c r="C111" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A112" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B112" s="13">
-        <v>5.2</v>
+        <v>128</v>
+      </c>
+      <c r="B112" s="15">
+        <v>25</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A113" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" s="12">
-        <v>16.66</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>144</v>
+        <v>5</v>
+      </c>
+      <c r="B113" s="13">
+        <v>40</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="114" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A114" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B114" s="13">
-        <v>5</v>
+        <v>132</v>
+      </c>
+      <c r="B114" s="15">
+        <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A115" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B115" s="12">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="B115" s="13">
+        <v>0.1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A116" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B116" s="13">
-        <v>6.66</v>
+        <v>134</v>
+      </c>
+      <c r="B116" s="15">
+        <v>20</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A117" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B117" s="12">
-        <v>6.66</v>
+        <v>136</v>
+      </c>
+      <c r="B117" s="13">
+        <v>1</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B118" s="13">
-        <v>30</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>152</v>
+        <v>123</v>
+      </c>
+      <c r="B118" s="15">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A119" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B119" s="12">
-        <v>16</v>
+        <v>137</v>
+      </c>
+      <c r="B119" s="13">
+        <v>1.7</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A120" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B120" s="13">
+        <v>138</v>
+      </c>
+      <c r="B120" s="15">
         <v>6.66</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A121" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B121" s="12">
-        <v>20</v>
+        <v>138</v>
+      </c>
+      <c r="B121" s="13">
+        <v>4.9800000000000004</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A122" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B122" s="13">
-        <v>6.66</v>
+        <v>140</v>
+      </c>
+      <c r="B122" s="15">
+        <v>30</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A123" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B123" s="12">
-        <v>10</v>
+        <v>142</v>
+      </c>
+      <c r="B123" s="13">
+        <v>6.66</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A124" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B124" s="13">
-        <v>40</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="B124" s="15">
+        <v>5</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A125" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B125" s="12">
-        <v>1.66</v>
+        <v>144</v>
+      </c>
+      <c r="B125" s="13">
+        <v>5</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A126" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B126" s="13">
-        <v>1.66</v>
+        <v>144</v>
+      </c>
+      <c r="B126" s="15">
+        <v>6.66</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A127" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B127" s="12">
-        <v>6.66</v>
+        <v>147</v>
+      </c>
+      <c r="B127" s="13">
+        <v>5</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A128" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B128" s="13">
-        <v>10</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>169</v>
+        <v>5</v>
+      </c>
+      <c r="B128" s="15">
+        <v>30</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E128" s="5"/>
     </row>
     <row r="129" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A129" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B129" s="12">
-        <v>6.66</v>
+        <v>150</v>
+      </c>
+      <c r="B129" s="13">
+        <v>19.98</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A130" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B130" s="13">
-        <v>50</v>
+        <v>152</v>
+      </c>
+      <c r="B130" s="15">
+        <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A131" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B131" s="12">
-        <v>5</v>
+        <v>152</v>
+      </c>
+      <c r="B131" s="13">
+        <v>6.66</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A132" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B132" s="13">
-        <v>10</v>
+        <v>153</v>
+      </c>
+      <c r="B132" s="15">
+        <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A133" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B133" s="12">
-        <v>6.66</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>178</v>
+        <v>5</v>
+      </c>
+      <c r="B133" s="13">
+        <v>30</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E133" s="6"/>
     </row>
     <row r="134" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A134" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B134" s="13">
-        <v>1.66</v>
+        <v>156</v>
+      </c>
+      <c r="B134" s="15">
+        <v>5.2</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A135" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B135" s="12">
-        <v>6.66</v>
+        <v>158</v>
+      </c>
+      <c r="B135" s="13">
+        <v>16.66</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E135" s="3"/>
     </row>
     <row r="136" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A136" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" s="15">
         <v>5</v>
       </c>
-      <c r="B136" s="13">
-        <v>20</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>180</v>
+      <c r="C136" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E136" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A137" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B137" s="12">
+        <v>161</v>
+      </c>
+      <c r="B137" s="13">
         <v>10</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E137" s="3"/>
     </row>
     <row r="138" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A138" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B138" s="13">
-        <v>30</v>
+        <v>163</v>
+      </c>
+      <c r="B138" s="15">
+        <v>6.66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A139" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B139" s="12">
-        <v>30</v>
+        <v>165</v>
+      </c>
+      <c r="B139" s="13">
+        <v>6.66</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A140" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B140" s="13">
-        <v>6.66</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>186</v>
+        <v>5</v>
+      </c>
+      <c r="B140" s="15">
+        <v>30</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A141" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B141" s="12">
-        <v>1.66</v>
+        <v>168</v>
+      </c>
+      <c r="B141" s="13">
+        <v>16</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A142" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B142" s="13">
-        <v>5</v>
+        <v>170</v>
+      </c>
+      <c r="B142" s="15">
+        <v>6.66</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A143" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B143" s="12">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="B143" s="13">
+        <v>20</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A144" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B144" s="13">
+        <v>174</v>
+      </c>
+      <c r="B144" s="15">
         <v>6.66</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A145" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B145" s="12">
-        <v>6.66</v>
+        <v>176</v>
+      </c>
+      <c r="B145" s="13">
+        <v>10</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E145" s="3"/>
     </row>
     <row r="146" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A146" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B146" s="13">
-        <v>6.66</v>
+        <v>178</v>
+      </c>
+      <c r="B146" s="15">
+        <v>40</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A147" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B147" s="12">
-        <v>6.66</v>
+        <v>180</v>
+      </c>
+      <c r="B147" s="13">
+        <v>1.66</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E147" s="3"/>
     </row>
     <row r="148" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A148" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B148" s="13">
-        <v>5</v>
+        <v>182</v>
+      </c>
+      <c r="B148" s="15">
+        <v>1.66</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A149" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B149" s="12">
-        <v>1.66</v>
+        <v>183</v>
+      </c>
+      <c r="B149" s="13">
+        <v>6.66</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A150" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B150" s="13">
-        <v>30</v>
+        <v>185</v>
+      </c>
+      <c r="B150" s="15">
+        <v>10</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A151" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B151" s="12">
+        <v>186</v>
+      </c>
+      <c r="B151" s="13">
         <v>6.66</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E151" s="3"/>
     </row>
     <row r="152" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A152" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B152" s="13">
-        <v>6.66</v>
+        <v>188</v>
+      </c>
+      <c r="B152" s="15">
+        <v>50</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A153" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B153" s="12">
-        <v>6.66</v>
+        <v>189</v>
+      </c>
+      <c r="B153" s="13">
+        <v>5</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A154" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B154" s="13">
-        <v>37.56</v>
+        <v>190</v>
+      </c>
+      <c r="B154" s="15">
+        <v>10</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A155" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B155" s="12">
-        <v>5</v>
+        <v>192</v>
+      </c>
+      <c r="B155" s="13">
+        <v>6.66</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A156" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B156" s="13">
-        <v>6.66</v>
+        <v>194</v>
+      </c>
+      <c r="B156" s="15">
+        <v>1.66</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A157" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B157" s="12">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="B157" s="13">
+        <v>6.66</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A158" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B158" s="13">
-        <v>6.66</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>211</v>
+        <v>5</v>
+      </c>
+      <c r="B158" s="15">
+        <v>20</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A159" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B159" s="12">
-        <v>20</v>
+        <v>178</v>
+      </c>
+      <c r="B159" s="13">
+        <v>10</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A160" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B160" s="13">
-        <v>10</v>
+        <v>197</v>
+      </c>
+      <c r="B160" s="15">
+        <v>30</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A161" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B161" s="12">
-        <v>71.930000000000007</v>
+        <v>199</v>
+      </c>
+      <c r="B161" s="13">
+        <v>30</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A162" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B162" s="13">
+        <v>200</v>
+      </c>
+      <c r="B162" s="15">
         <v>6.66</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A163" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B163" s="12">
-        <v>3.32</v>
+        <v>189</v>
+      </c>
+      <c r="B163" s="13">
+        <v>1.66</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A164" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B164" s="13">
-        <v>6.66</v>
+        <v>203</v>
+      </c>
+      <c r="B164" s="15">
+        <v>5</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A165" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B165" s="12">
-        <v>6.66</v>
+        <v>205</v>
+      </c>
+      <c r="B165" s="13">
+        <v>5</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A166" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B166" s="13">
+        <v>142</v>
+      </c>
+      <c r="B166" s="15">
         <v>6.66</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A167" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B167" s="12">
+        <v>208</v>
+      </c>
+      <c r="B167" s="13">
         <v>6.66</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A168" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B168" s="13">
+        <v>209</v>
+      </c>
+      <c r="B168" s="15">
         <v>6.66</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A169" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B169" s="12">
+        <v>211</v>
+      </c>
+      <c r="B169" s="13">
         <v>6.66</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A170" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B170" s="13">
-        <v>6.66</v>
+        <v>213</v>
+      </c>
+      <c r="B170" s="15">
+        <v>5</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A171" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B171" s="12">
-        <v>6.66</v>
+        <v>215</v>
+      </c>
+      <c r="B171" s="13">
+        <v>1.66</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A172" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B172" s="13">
-        <v>6.66</v>
+        <v>192</v>
+      </c>
+      <c r="B172" s="15">
+        <v>30</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A173" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B173" s="12">
+        <v>218</v>
+      </c>
+      <c r="B173" s="13">
         <v>6.66</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E173" s="3"/>
     </row>
     <row r="174" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A174" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B174" s="13">
+        <v>220</v>
+      </c>
+      <c r="B174" s="15">
         <v>6.66</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A175" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B175" s="12">
+        <v>221</v>
+      </c>
+      <c r="B175" s="13">
         <v>6.66</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A176" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B176" s="13">
+        <v>223</v>
+      </c>
+      <c r="B176" s="15">
         <v>37.56</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A177" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B177" s="12">
-        <v>10</v>
+        <v>224</v>
+      </c>
+      <c r="B177" s="13">
+        <v>5</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A178" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B178" s="13">
+        <v>203</v>
+      </c>
+      <c r="B178" s="15">
         <v>6.66</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A179" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B179" s="12">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="B179" s="13">
+        <v>5</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A180" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B180" s="13">
+        <v>227</v>
+      </c>
+      <c r="B180" s="15">
         <v>6.66</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A181" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B181" s="12">
-        <v>6.66</v>
+        <v>228</v>
+      </c>
+      <c r="B181" s="13">
+        <v>20</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A182" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B182" s="13">
-        <v>19.98</v>
+        <v>228</v>
+      </c>
+      <c r="B182" s="15">
+        <v>10</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A183" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B183" s="12">
-        <v>19.98</v>
+        <v>229</v>
+      </c>
+      <c r="B183" s="13">
+        <v>71.930000000000007</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E183" s="3"/>
     </row>
     <row r="184" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A184" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B184" s="13">
-        <v>20</v>
+        <v>168</v>
+      </c>
+      <c r="B184" s="15">
+        <v>6.66</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A185" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B185" s="12">
-        <v>6.66</v>
+        <v>231</v>
+      </c>
+      <c r="B185" s="13">
+        <v>3.32</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E185" s="3"/>
     </row>
     <row r="186" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A186" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B186" s="13">
+        <v>233</v>
+      </c>
+      <c r="B186" s="15">
         <v>6.66</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A187" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B187" s="12">
-        <v>137.46</v>
+        <v>234</v>
+      </c>
+      <c r="B187" s="13">
+        <v>6.66</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E187" s="3"/>
     </row>
     <row r="188" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A188" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B188" s="13">
-        <v>71.930000000000007</v>
+        <v>235</v>
+      </c>
+      <c r="B188" s="15">
+        <v>6.66</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A189" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B189" s="12">
+        <v>236</v>
+      </c>
+      <c r="B189" s="13">
         <v>6.66</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A190" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B190" s="13">
+        <v>237</v>
+      </c>
+      <c r="B190" s="15">
         <v>6.66</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A191" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B191" s="12">
+        <v>238</v>
+      </c>
+      <c r="B191" s="13">
         <v>6.66</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E191" s="3"/>
     </row>
     <row r="192" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A192" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B192" s="13">
+        <v>239</v>
+      </c>
+      <c r="B192" s="15">
         <v>6.66</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A193" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B193" s="12">
+        <v>241</v>
+      </c>
+      <c r="B193" s="13">
         <v>6.66</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A194" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B194" s="13">
-        <v>10</v>
+        <v>242</v>
+      </c>
+      <c r="B194" s="15">
+        <v>6.66</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A195" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B195" s="12">
-        <v>50</v>
+        <v>244</v>
+      </c>
+      <c r="B195" s="13">
+        <v>6.66</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A196" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B196" s="13">
-        <v>5</v>
+        <v>245</v>
+      </c>
+      <c r="B196" s="15">
+        <v>6.66</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A197" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B197" s="12">
+        <v>246</v>
+      </c>
+      <c r="B197" s="13">
         <v>6.66</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A198" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B198" s="13">
+        <v>247</v>
+      </c>
+      <c r="B198" s="15">
         <v>37.56</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A199" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B199" s="12">
-        <v>6.66</v>
+        <v>248</v>
+      </c>
+      <c r="B199" s="13">
+        <v>10</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A200" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B200" s="13">
+        <v>250</v>
+      </c>
+      <c r="B200" s="15">
         <v>6.66</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A201" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B201" s="12">
-        <v>6.66</v>
+        <v>251</v>
+      </c>
+      <c r="B201" s="13">
+        <v>30</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A202" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B202" s="13">
+        <v>252</v>
+      </c>
+      <c r="B202" s="15">
         <v>6.66</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A203" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B203" s="12">
+        <v>253</v>
+      </c>
+      <c r="B203" s="13">
         <v>6.66</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A204" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B204" s="13">
-        <v>66.599999999999994</v>
+        <v>255</v>
+      </c>
+      <c r="B204" s="15">
+        <v>19.98</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A205" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B205" s="12">
-        <v>30</v>
+        <v>211</v>
+      </c>
+      <c r="B205" s="13">
+        <v>19.98</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A206" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B206" s="13">
-        <v>60</v>
+        <v>257</v>
+      </c>
+      <c r="B206" s="15">
+        <v>20</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A207" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B207" s="12">
-        <v>37.56</v>
+        <v>258</v>
+      </c>
+      <c r="B207" s="13">
+        <v>6.66</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A208" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B208" s="13">
-        <v>66.599999999999994</v>
+        <v>260</v>
+      </c>
+      <c r="B208" s="15">
+        <v>6.66</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A209" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B209" s="12">
-        <v>6.66</v>
+        <v>261</v>
+      </c>
+      <c r="B209" s="13">
+        <v>137.46</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E209" s="3"/>
     </row>
     <row r="210" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A210" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B210" s="13">
-        <v>6.66</v>
+        <v>262</v>
+      </c>
+      <c r="B210" s="15">
+        <v>71.930000000000007</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A211" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B211" s="12">
+        <v>263</v>
+      </c>
+      <c r="B211" s="13">
         <v>6.66</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E211" s="3"/>
     </row>
     <row r="212" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A212" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B212" s="13">
+        <v>265</v>
+      </c>
+      <c r="B212" s="15">
         <v>6.66</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A213" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B213" s="12">
-        <v>5.21</v>
+        <v>266</v>
+      </c>
+      <c r="B213" s="13">
+        <v>6.66</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A214" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B214" s="13">
-        <v>5.2</v>
+        <v>268</v>
+      </c>
+      <c r="B214" s="15">
+        <v>6.66</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A215" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B215" s="12">
-        <v>10</v>
+        <v>270</v>
+      </c>
+      <c r="B215" s="13">
+        <v>6.66</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E215" s="3"/>
     </row>
     <row r="216" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A216" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B216" s="13">
-        <v>6.67</v>
+        <v>271</v>
+      </c>
+      <c r="B216" s="15">
+        <v>10</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
       <c r="A217" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B217" s="13">
+        <v>50</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="1:8" s="8" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A218" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B218" s="15">
+        <v>5</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A219" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B219" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A220" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B220" s="15">
+        <v>37.56</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E220" s="2"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="8"/>
+      <c r="H220" s="9"/>
+    </row>
+    <row r="221" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A221" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B221" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A222" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B217" s="12">
+      <c r="B222" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A223" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B223" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A224" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B224" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A225" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B225" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A226" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B226" s="15">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A227" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B227" s="13">
+        <v>30</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A228" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B228" s="15">
+        <v>60</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A229" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B229" s="13">
+        <v>37.56</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A230" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B230" s="15">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A231" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B231" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A232" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B232" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A233" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B233" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A234" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B234" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A235" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B235" s="13">
         <v>5.21</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E217" s="3"/>
-    </row>
-    <row r="218" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A218" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B218" s="13">
-        <v>6.66</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="1:8" s="8" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B219" s="14"/>
-      <c r="C219" s="9"/>
-      <c r="E219" s="9"/>
-    </row>
-    <row r="221" spans="1:8" ht="26.25" customHeight="1">
-      <c r="D221" s="8"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="9"/>
+      <c r="C235" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A236" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B236" s="15">
+        <v>5.2</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A237" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B237" s="13">
+        <v>10</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A238" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B238" s="15">
+        <v>6.67</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A239" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B239" s="13">
+        <v>5.21</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A240" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B240" s="15">
+        <v>6.66</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A241" s="8"/>
+      <c r="B241" s="16"/>
+      <c r="C241" s="9"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="9"/>
+    </row>
+    <row r="243" spans="1:5" ht="26.25" customHeight="1">
+      <c r="D243" s="8"/>
+      <c r="E243" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E218" xr:uid="{C6695406-965B-48C8-ABD6-1D4328DC7EBB}"/>
+  <autoFilter ref="A1:E240" xr:uid="{C6695406-965B-48C8-ABD6-1D4328DC7EBB}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
